--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308774.8305155635</v>
+        <v>-311556.6759071577</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>181.203730416244</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>107.6974567733936</v>
+        <v>29.34790701338951</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>118.9283458032789</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.707323882823381</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>11.47779579068979</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>116.8083228660698</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>94.45289593214784</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>67.41850321461121</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>153.4046756553383</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>25.1930611256654</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>81.46782561700439</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>95.2505667171841</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>114.720561100775</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>50.0620915095756</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>2.607010073152018</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>187.2551470558694</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>271.1598222873237</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>199.9646153110746</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.2821160880066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>4.665762779849726</v>
       </c>
     </row>
     <row r="23">
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>78.58522891595192</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>105.5373371683561</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>172.3645574474261</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>233.117719468068</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>38.2187527515831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1672.817798126042</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C2" t="n">
-        <v>1303.85528118563</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>945.5895825788796</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>945.5895825788796</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2412.186293460278</v>
+        <v>2217.663896316373</v>
       </c>
       <c r="V2" t="n">
-        <v>2412.186293460278</v>
+        <v>1886.601008972802</v>
       </c>
       <c r="W2" t="n">
-        <v>2059.417638190163</v>
+        <v>1886.601008972802</v>
       </c>
       <c r="X2" t="n">
-        <v>2059.417638190163</v>
+        <v>1886.601008972802</v>
       </c>
       <c r="Y2" t="n">
-        <v>2059.417638190163</v>
+        <v>1886.601008972802</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.9495687306105</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>331.8209966133686</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>174.0726240458987</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>352.67413830922</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>350.9495687306105</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>350.9495687306105</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>350.9495687306105</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.9495687306105</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>841.766221650837</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>841.766221650837</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>483.5005230440865</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>483.5005230440865</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2524.132196633494</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2524.132196633494</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2171.363541363379</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2171.363541363379</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>1781.224209387568</v>
+        <v>1228.366061714959</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644252</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W7" t="n">
-        <v>370.8558756644252</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="X7" t="n">
-        <v>370.8558756644252</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644252</v>
+        <v>195.0064718412582</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.727033871796</v>
+        <v>1267.804920971789</v>
       </c>
       <c r="C8" t="n">
-        <v>863.7645169313846</v>
+        <v>1267.804920971789</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313846</v>
+        <v>1267.804920971789</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331404</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="F8" t="n">
         <v>471.030763583937</v>
@@ -4808,13 +4808,13 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>785.3786496953994</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>972.0780625208071</v>
       </c>
       <c r="N8" t="n">
-        <v>1579.896877817736</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.395011452259</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V8" t="n">
-        <v>1996.332124108688</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="W8" t="n">
-        <v>1996.332124108688</v>
+        <v>2418.009851272802</v>
       </c>
       <c r="X8" t="n">
-        <v>1622.866365847608</v>
+        <v>2044.544093011722</v>
       </c>
       <c r="Y8" t="n">
-        <v>1232.727033871796</v>
+        <v>1654.40476103591</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>284.1468083492267</v>
+        <v>219.7306631621202</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>219.7306631621202</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>219.7306631621202</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>828.2484665920741</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="V10" t="n">
-        <v>573.5639783861873</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="W10" t="n">
-        <v>284.1468083492267</v>
+        <v>668.5127932036676</v>
       </c>
       <c r="X10" t="n">
-        <v>284.1468083492267</v>
+        <v>440.5232423056503</v>
       </c>
       <c r="Y10" t="n">
-        <v>284.1468083492267</v>
+        <v>219.7306631621202</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5121,19 +5121,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D13" t="n">
-        <v>580.8993044876688</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E13" t="n">
-        <v>432.9862109052757</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>286.0962634073653</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="14">
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>634.334587849125</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5674,16 +5674,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279801</v>
@@ -5692,31 +5692,31 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U19" t="n">
-        <v>1703.562270119271</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V19" t="n">
-        <v>1448.877781913384</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W19" t="n">
-        <v>1159.460611876424</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>931.4710609784063</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y19" t="n">
-        <v>931.4710609784063</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>785.3114619327533</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>635.1948225204176</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>487.2817289380245</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>340.3917814401141</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>173.195682154994</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.6442739835331</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2090.45917461044</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1801.383947954638</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1546.699459748751</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1257.28228971179</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1029.292738813773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813773</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6458,28 +6458,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1198.22892174168</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1198.22892174168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,10 +7190,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7734,10 +7734,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942656</v>
@@ -7795,28 +7795,28 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8456,16 +8456,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>312.2066704284447</v>
       </c>
       <c r="O8" t="n">
-        <v>275.3456371407393</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8532,25 +8532,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>88.20185826002125</v>
       </c>
       <c r="N9" t="n">
-        <v>176.8008973295432</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>201.5301112472365</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>143.5267107348957</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>30.9808325098305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>31.71340154579414</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856704</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.0084629450603</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>30.15030327141886</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>15.02465210192042</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>25.74504007796256</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.9188905722451</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>61.70948393027197</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>111.8681131589321</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>53.40527886852297</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350418</v>
+        <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524995</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
         <v>282501.3098915022</v>
@@ -26332,28 +26332,28 @@
         <v>282501.3098915023</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="M2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="N2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="N2" t="n">
-        <v>282501.3098915023</v>
-      </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363165</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151505.7204605792</v>
+        <v>151505.7204605791</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>5677.536566682752</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="H4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682736</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682736</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
+        <v>13668.39582977623</v>
+      </c>
+      <c r="P4" t="n">
         <v>13668.39582977622</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-572789.7518034914</v>
+        <v>-573045.6210429018</v>
       </c>
       <c r="C6" t="n">
-        <v>-5416.874073943443</v>
+        <v>-5416.874073943269</v>
       </c>
       <c r="D6" t="n">
-        <v>-161220.6801677385</v>
+        <v>-161220.6801677383</v>
       </c>
       <c r="E6" t="n">
-        <v>-595351.4478798941</v>
+        <v>-595386.1858053297</v>
       </c>
       <c r="F6" t="n">
-        <v>175701.2435009124</v>
+        <v>175666.5055754767</v>
       </c>
       <c r="G6" t="n">
-        <v>175701.2435009124</v>
+        <v>175666.5055754767</v>
       </c>
       <c r="H6" t="n">
-        <v>175701.2435009124</v>
+        <v>175666.5055754767</v>
       </c>
       <c r="I6" t="n">
-        <v>175701.2435009123</v>
+        <v>175666.5055754766</v>
       </c>
       <c r="J6" t="n">
-        <v>-721.9756916807237</v>
+        <v>-756.7136171165333</v>
       </c>
       <c r="K6" t="n">
-        <v>175701.2435009122</v>
+        <v>175666.5055754767</v>
       </c>
       <c r="L6" t="n">
-        <v>175701.2435009125</v>
+        <v>175666.5055754764</v>
       </c>
       <c r="M6" t="n">
-        <v>51492.7327928538</v>
+        <v>51457.99486741817</v>
       </c>
       <c r="N6" t="n">
-        <v>175701.2435009124</v>
+        <v>175666.5055754765</v>
       </c>
       <c r="O6" t="n">
         <v>151104.3897751759</v>
       </c>
       <c r="P6" t="n">
-        <v>170532.1077688076</v>
+        <v>170532.1077688075</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>221.8762604948998</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>355.2571061462231</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>16.03727598905928</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>250.4303194410046</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>395.3982499510216</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>134.4158446422195</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>61.71799290964731</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>219.1044951219798</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>97.75011056696229</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>324.0479075917476</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>85.77899548162344</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>191.2724316194069</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28561,13 +28561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,7 +31856,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,25 +32792,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35176,16 +35176,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>508.5038551678209</v>
       </c>
       <c r="O8" t="n">
-        <v>447.2335415013044</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>269.5122990222483</v>
       </c>
       <c r="N9" t="n">
-        <v>377.4642727362752</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,7 +35504,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36054,7 +36054,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060445</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36124,10 +36124,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
